--- a/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven Art Series (ASTX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven Art Series (ASTX).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,341 +654,348 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Jadzi, Oracle of Arcavios', ['Card', 'Jadzi, Oracle of Arcavios', 'Card'])</t>
+          <t>('Island', ['Card', 'Island', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Kasmina, Enigma Sage', ['Card', 'Kasmina, Enigma Sage', 'Card'])</t>
+          <t>('Jadzi, Oracle of Arcavios', ['Card', 'Jadzi, Oracle of Arcavios', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Kianne, Dean of Substance', ['Card', 'Kianne, Dean of Substance', 'Card'])</t>
+          <t>('Kasmina, Enigma Sage', ['Card', 'Kasmina, Enigma Sage', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Killian, Ink Duelist', ['Card', 'Killian, Ink Duelist', 'Card'])</t>
+          <t>('Kianne, Dean of Substance', ['Card', 'Kianne, Dean of Substance', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Leonin Lightscribe', ['Card', 'Leonin Lightscribe', 'Card'])</t>
+          <t>('Killian, Ink Duelist', ['Card', 'Killian, Ink Duelist', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Lightning Bolt', ['Card', 'Lightning Bolt', 'Card'])</t>
+          <t>('Leonin Lightscribe', ['Card', 'Leonin Lightscribe', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Lorehold Command', ['Card', 'Lorehold Command', 'Card'])</t>
+          <t>('Lightning Bolt', ['Card', 'Lightning Bolt', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Magma Opus', ['Card', 'Magma Opus', 'Card'])</t>
+          <t>('Lorehold Command', ['Card', 'Lorehold Command', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Make Your Mark', ['Card', 'Make Your Mark', 'Card'])</t>
+          <t>('Magma Opus', ['Card', 'Magma Opus', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Memory Lapse', ['Card', 'Memory Lapse', 'Card'])</t>
+          <t>('Make Your Mark', ['Card', 'Make Your Mark', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Mila, Crafty Companion', ['Card', 'Mila, Crafty Companion', 'Card'])</t>
+          <t>('Memory Lapse', ['Card', 'Memory Lapse', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Negate', ['Card', 'Negate', 'Card'])</t>
+          <t>('Mila, Crafty Companion', ['Card', 'Mila, Crafty Companion', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Novice Dissector', ['Card', 'Novice Dissector', 'Card'])</t>
+          <t>('Negate', ['Card', 'Negate', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Oriq Loremage', ['Card', 'Oriq Loremage', 'Card'])</t>
+          <t>('Novice Dissector', ['Card', 'Novice Dissector', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Plargg, Dean of Chaos', ['Card', 'Plargg, Dean of Chaos', 'Card'])</t>
+          <t>('Oriq Loremage', ['Card', 'Oriq Loremage', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Primal Command', ['Card', 'Primal Command', 'Card'])</t>
+          <t>('Plargg, Dean of Chaos', ['Card', 'Plargg, Dean of Chaos', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Prismari Campus', ['Card', 'Prismari Campus', 'Card'])</t>
+          <t>('Primal Command', ['Card', 'Primal Command', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Prismari Command', ['Card', 'Prismari Command', 'Card'])</t>
+          <t>('Prismari Campus', ['Card', 'Prismari Campus', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Professor of Symbology', ['Card', 'Professor of Symbology', 'Card'])</t>
+          <t>('Prismari Command', ['Card', 'Prismari Command', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Professor of Zoomancy', ['Card', 'Professor of Zoomancy', 'Card'])</t>
+          <t>('Professor of Symbology', ['Card', 'Professor of Symbology', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Revel in Silence', ['Card', 'Revel in Silence', 'Card'])</t>
+          <t>('Professor of Zoomancy', ['Card', 'Professor of Zoomancy', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Revitalize', ['Card', 'Revitalize', 'Card'])</t>
+          <t>('Revel in Silence', ['Card', 'Revel in Silence', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Rise of Extus', ['Card', 'Rise of Extus', 'Card'])</t>
+          <t>('Revitalize', ['Card', 'Revitalize', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Rootha, Mercurial Artist', ['Card', 'Rootha, Mercurial Artist', 'Card'])</t>
+          <t>('Rise of Extus', ['Card', 'Rise of Extus', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Selfless Glyphweaver', ['Card', 'Selfless Glyphweaver', 'Card'])</t>
+          <t>('Rootha, Mercurial Artist', ['Card', 'Rootha, Mercurial Artist', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Shadewing Laureate', ['Card', 'Shadewing Laureate', 'Card'])</t>
+          <t>('Selfless Glyphweaver', ['Card', 'Selfless Glyphweaver', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Shadrix Silverquill', ['Card', 'Shadrix Silverquill', 'Card'])</t>
+          <t>('Shadewing Laureate', ['Card', 'Shadewing Laureate', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Shaile, Dean of Radiance', ['Card', 'Shaile, Dean of Radiance', 'Card'])</t>
+          <t>('Shadrix Silverquill', ['Card', 'Shadrix Silverquill', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Sign in Blood', ['Card', 'Sign in Blood', 'Card'])</t>
+          <t>('Shaile, Dean of Radiance', ['Card', 'Shaile, Dean of Radiance', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Silverquill Command', ['Card', 'Silverquill Command', 'Card'])</t>
+          <t>('Sign in Blood', ['Card', 'Sign in Blood', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Spectacle Mage', ['Card', 'Spectacle Mage', 'Card'])</t>
+          <t>('Silverquill Command', ['Card', 'Silverquill Command', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Specter of the Fens', ['Card', 'Specter of the Fens', 'Card'])</t>
+          <t>('Spectacle Mage', ['Card', 'Spectacle Mage', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Star Pupil', ['Card', 'Star Pupil', 'Card'])</t>
+          <t>('Specter of the Fens', ['Card', 'Specter of the Fens', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Stone Rain', ['Card', 'Stone Rain', 'Card'])</t>
+          <t>('Star Pupil', ['Card', 'Star Pupil', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Storm-Kiln Artist', ['Card', 'Storm-Kiln Artist', 'Card'])</t>
+          <t>('Stone Rain', ['Card', 'Stone Rain', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['Card', 'Strategic Planning', 'Card'])</t>
+          <t>('Storm-Kiln Artist', ['Card', 'Storm-Kiln Artist', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Tanazir Quandrix', ['Card', 'Tanazir Quandrix', 'Card'])</t>
+          <t>('Strategic Planning', ['Card', 'Strategic Planning', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('Teach by Example', ['Card', 'Teach by Example', 'Card'])</t>
+          <t>('Tanazir Quandrix', ['Card', 'Tanazir Quandrix', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Tendrils of Agony', ['Card', 'Tendrils of Agony', 'Card'])</t>
+          <t>('Teach by Example', ['Card', 'Teach by Example', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Thrill of Possibility', ['Card', 'Thrill of Possibility', 'Card'])</t>
+          <t>('Tendrils of Agony', ['Card', 'Tendrils of Agony', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Time Warp', ['Card', 'Time Warp', 'Card'])</t>
+          <t>('Thrill of Possibility', ['Card', 'Thrill of Possibility', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('Torrent Sculptor', ['Card', 'Torrent Sculptor', 'Card'])</t>
+          <t>('Time Warp', ['Card', 'Time Warp', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>("Urza's Rage", ['Card', "Urza's Rage", 'Card'])</t>
+          <t>('Torrent Sculptor', ['Card', 'Torrent Sculptor', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Valentin, Dean of the Vein', ['Card', 'Valentin, Dean of the Vein', 'Card'])</t>
+          <t>("Urza's Rage", ['Card', "Urza's Rage", 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Velomachus Lorehold', ['Card', 'Velomachus Lorehold', 'Card'])</t>
+          <t>('Valentin, Dean of the Vein', ['Card', 'Valentin, Dean of the Vein', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Verdant Mastery', ['Card', 'Verdant Mastery', 'Card'])</t>
+          <t>('Velomachus Lorehold', ['Card', 'Velomachus Lorehold', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Vortex Runner', ['Card', 'Vortex Runner', 'Card'])</t>
+          <t>('Verdant Mastery', ['Card', 'Verdant Mastery', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Witherbloom Command', ['Card', 'Witherbloom Command', 'Card'])</t>
+          <t>('Vortex Runner', ['Card', 'Vortex Runner', 'Card'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
+        <is>
+          <t>('Witherbloom Command', ['Card', 'Witherbloom Command', 'Card'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>('Zimone, Quandrix Prodigy', ['Card', 'Zimone, Quandrix Prodigy', 'Card'])</t>
         </is>
